--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_06_end.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_06_end.xlsx
@@ -1684,7 +1684,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="마리아"]  (창기병이라…… 공격 범위가 아주 넓은 데다가 민첩하고 힘이 세…... 빈틈이 없어.)
+    <t xml:space="preserve">[name="마리아"]  (창기병이라…… 공격 범위가 아주 넓은 데다가 민첩하고 힘이 세…… 빈틈이 없어.)
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_06_end.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_06_end.xlsx
@@ -896,7 +896,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  As a result, the girl of today was pushed hastily into the position, our “youngest Platinum.”
+    <t xml:space="preserve">[name="Spokesman Czarny"]  As a result, the girl of today was pushed hastily into the position, our 'youngest Platinum.'
 </t>
   </si>
   <si>
@@ -1048,7 +1048,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  Against “Left-hand” Tytus Topola.
+    <t xml:space="preserve">[name="Bald Marcin"]  Against 'Left-hand' Tytus Topola.
 </t>
   </si>
   <si>
@@ -1140,7 +1140,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  And facing her—! The concealed blade, the height of status, named for the old knight of legend, it’s the headliner of the Blade Helmet Knightclub, it’s “Left-hand” Tytus Topola! 
+    <t xml:space="preserve">[name="Greatmouth Mob"]  And facing her—! The concealed blade, the height of status, named for the old knight of legend, it’s the headliner of the Blade Helmet Knightclub, it’s 'Left-hand' Tytus Topola! 
 </t>
   </si>
   <si>
@@ -1160,7 +1160,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  After defeating “Plastic” Szewczyk, she’s been marching victorious! Big or small, no matter the event, Maria Nearl brings her A-game!
+    <t xml:space="preserve">[name="Greatmouth Mob"]  After defeating 'Plastic' Szewczyk, she’s been marching victorious! Big or small, no matter the event, Maria Nearl brings her A-game!
 </t>
   </si>
   <si>
@@ -1320,7 +1320,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">In the shadow of “Left-hand” Tytus, Maria raises her sword once more.
+    <t xml:space="preserve">In the shadow of 'Left-hand' Tytus, Maria raises her sword once more.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_06_end.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_06_end.xlsx
@@ -892,7 +892,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  The previous Platinum harbored a secret love for his target, and so for the sake of protecting the object of his affections, he died at the Armorless Union’s hands.
+    <t xml:space="preserve">[name="Spokesman Czarny"]  The previous Platinum harbored a secret love for his target, and so for the sake of protecting the object of his affections, he died at the Armorless Union's hands.
 </t>
   </si>
   <si>
@@ -904,11 +904,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Corporate Employee"]  I-I see... Why are you telling me this? The Armorless Union’s existence should be classified... so aren’t you... 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  Oh, do lay your concerns aside. It’s simply been on my mind quite a bit as of late. Had I not made the effort to get to where I am today, I would hardly enjoy the privilege to ponder it. 
+    <t xml:space="preserve">[name="Corporate Employee"]  I-I see... Why are you telling me this? The Armorless Union's existence should be classified... so aren't you... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Czarny"]  Oh, do lay your concerns aside. It's simply been on my mind quite a bit as of late. Had I not made the effort to get to where I am today, I would hardly enjoy the privilege to ponder it. 
 </t>
   </si>
   <si>
@@ -932,7 +932,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Corporate Employee"]  Y-Yeah... so far in the event, I’ve been responsible for liaising between the major companies and the Knights Association...
+    <t xml:space="preserve">[name="Corporate Employee"]  Y-Yeah... so far in the event, I've been responsible for liaising between the major companies and the Knights Association...
 </t>
   </si>
   <si>
@@ -940,11 +940,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Corporate Employee"]  It’s no problem. If I can contribute to the business, that’s what I’m here for—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  No no no, your work is what they pay your salary for. You needn’t use such humble language.
+    <t xml:space="preserve">[name="Corporate Employee"]  It's no problem. If I can contribute to the business, that's what I'm here for—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Czarny"]  No no no, your work is what they pay your salary for. You needn't use such humble language.
 </t>
   </si>
   <si>
@@ -952,7 +952,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Corporate Employee"]  Ah... I didn’t have what it took...
+    <t xml:space="preserve">[name="Corporate Employee"]  Ah... I didn't have what it took...
 </t>
   </si>
   <si>
@@ -1000,11 +1000,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  I told her not to be rash! Why doesn’t this silly girl—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  Steady, now. It’s some other kid who got hurt.
+    <t xml:space="preserve">[name="Zofia"]  I told her not to be rash! Why doesn't this silly girl—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bald Marcin"]  Steady, now. It's some other kid who got hurt.
 </t>
   </si>
   <si>
@@ -1016,7 +1016,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  This morning, they said they didn’t want to cause Nearl any more trouble and left.
+    <t xml:space="preserve">[name="Bald Marcin"]  This morning, they said they didn't want to cause Nearl any more trouble and left.
 </t>
   </si>
   <si>
@@ -1024,7 +1024,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  They’re in a hell of a tight spot, but our hands are tied.
+    <t xml:space="preserve">[name="Bald Marcin"]  They're in a hell of a tight spot, but our hands are tied.
 </t>
   </si>
   <si>
@@ -1032,7 +1032,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  What’s Maria doing now?
+    <t xml:space="preserve">[name="Zofia"]  What's Maria doing now?
 </t>
   </si>
   <si>
@@ -1064,15 +1064,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  Someone came looking for Maria. It wasn’t good.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  She’s just like Margaret used to be. Obsessed with charging forward, no idea how to deal with the corporates.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  You think... she’s like Margaret?
+    <t xml:space="preserve">[name="Bald Marcin"]  Someone came looking for Maria. It wasn't good.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bald Marcin"]  She's just like Margaret used to be. Obsessed with charging forward, no idea how to deal with the corporates.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  You think... she's like Margaret?
 </t>
   </si>
   <si>
@@ -1080,19 +1080,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  She’s not even clear what’s in front of her, and she doesn’t know what to do about it. She can’t keep pushing upwards like this! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  Maria was so much more carefree before this... She doesn’t need to be the kind of knight you and I were, does she?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  You might be right, but you need to remember she’s got her own mind for things. You can’t decide it all for her.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  She’s still real young, and uneasy at that. Maybe her being carefree was all just so she wouldn’t worry you.
+    <t xml:space="preserve">[name="Zofia"]  She's not even clear what's in front of her, and she doesn't know what to do about it. She can't keep pushing upwards like this! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  Maria was so much more carefree before this... She doesn't need to be the kind of knight you and I were, does she?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bald Marcin"]  You might be right, but you need to remember she's got her own mind for things. You can't decide it all for her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bald Marcin"]  She's still real young, and uneasy at that. Maybe her being carefree was all just so she wouldn't worry you.
 </t>
   </si>
   <si>
@@ -1100,11 +1100,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Maybe she ought to lose a match. It’d sober her up.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  If you’re telling me that’s what you really think.
+    <t xml:space="preserve">[name="Zofia"]  Maybe she ought to lose a match. It'd sober her up.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bald Marcin"]  If you're telling me that's what you really think.
 </t>
   </si>
   <si>
@@ -1128,7 +1128,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  It’s my job to tell you the answer is—booooth!
+    <t xml:space="preserve">[name="Greatmouth Mob"]  It's my job to tell you the answer is—booooth!
 </t>
   </si>
   <si>
@@ -1136,15 +1136,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  In today’s special event! Our first competitor, hailing from the Nearl family, the mania for her’s off the charts! The marvelous maiden knight who’s got all her fans talking—Maria Nearl!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  And facing her—! The concealed blade, the height of status, named for the old knight of legend, it’s the headliner of the Blade Helmet Knightclub, it’s 'Left-hand' Tytus Topola! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Ooooh, man! Might be a first, today—the knights haven’t even come in yet, but the prize pool is running insane numbers! Looks like I oughta stop running my mouth already—I bet y’all wanted me to stop, right?  
+    <t xml:space="preserve">[name="Greatmouth Mob"]  In today's special event! Our first competitor, hailing from the Nearl family, the mania for her's off the charts! The marvelous maiden knight who's got all her fans talking—Maria Nearl!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  And facing her—! The concealed blade, the height of status, named for the old knight of legend, it's the headliner of the Blade Helmet Knightclub, it's 'Left-hand' Tytus Topola! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Ooooh, man! Might be a first, today—the knights haven't even come in yet, but the prize pool is running insane numbers! Looks like I oughta stop running my mouth already—I bet y'all wanted me to stop, right?  
 </t>
   </si>
   <si>
@@ -1160,11 +1160,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  After defeating 'Plastic' Szewczyk, she’s been marching victorious! Big or small, no matter the event, Maria Nearl brings her A-game!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Standing here now, she declared way back she had to get a place in the Major! Can she use this match as a stepping stone, and rise to the apex of the Kazimierz knights? We’re all waiting to see!  
+    <t xml:space="preserve">[name="Greatmouth Mob"]  After defeating 'Plastic' Szewczyk, she's been marching victorious! Big or small, no matter the event, Maria Nearl brings her A-game!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Standing here now, she declared way back she had to get a place in the Major! Can she use this match as a stepping stone, and rise to the apex of the Kazimierz knights? We're all waiting to see!  
 </t>
   </si>
   <si>
@@ -1180,11 +1180,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Left-hand Knight"]  Your sort don’t deserve to stand in my arena. Get off the stage. Get out.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  —No mistake! That’s Tytus Topola! I’ve been saying forever, we oughta give all our contestants microphones and let the audience immerse themselves in the heat of battle!   
+    <t xml:space="preserve">[name="Left-hand Knight"]  Your sort don't deserve to stand in my arena. Get off the stage. Get out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  —No mistake! That's Tytus Topola! I've been saying forever, we oughta give all our contestants microphones and let the audience immerse themselves in the heat of battle!   
 </t>
   </si>
   <si>
@@ -1192,7 +1192,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  The entire audience will get product coupons for goods from the aforementioned companies at any time! And once again, I’m gonna personally recommend a must-have for all you watching the game—Blue Ear Beer!  
+    <t xml:space="preserve">[name="Greatmouth Mob"]  The entire audience will get product coupons for goods from the aforementioned companies at any time! And once again, I'm gonna personally recommend a must-have for all you watching the game—Blue Ear Beer!  
 </t>
   </si>
   <si>
@@ -1200,11 +1200,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Left-hand Knight"]  Ugly sight. Struggling to hold onto your family’s knighthood. Like a gloompincer out of water.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Left-hand Knight"]  With no strength to bear a knight’s name, what service will shamelessly lashing out do?
+    <t xml:space="preserve">[name="Left-hand Knight"]  Ugly sight. Struggling to hold onto your family's knighthood. Like a gloompincer out of water.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Left-hand Knight"]  With no strength to bear a knight's name, what service will shamelessly lashing out do?
 </t>
   </si>
   <si>
@@ -1216,7 +1216,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Left-hand Knight"]  Fear not. I’m a different breed from Ingra’s dross... You will know today that not all who bear weapons can be called knights.
+    <t xml:space="preserve">[name="Left-hand Knight"]  Fear not. I'm a different breed from Ingra's dross... You will know today that not all who bear weapons can be called knights.
 </t>
   </si>
   <si>
@@ -1224,7 +1224,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  I’m done holding you back, so may I have the honor to declare! Let the match—beginnnn! 
+    <t xml:space="preserve">[name="Greatmouth Mob"]  I'm done holding you back, so may I have the honor to declare! Let the match—beginnnn! 
 </t>
   </si>
   <si>
@@ -1236,7 +1236,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  —Wh-What just happened?! It was instant! The instant it started! Maria’s sword got sent flying! And one swift follow-up kick—!    
+    <t xml:space="preserve">[name="Greatmouth Mob"]  —Wh-What just happened?! It was instant! The instant it started! Maria's sword got sent flying! And one swift follow-up kick—!    
 </t>
   </si>
   <si>
@@ -1268,7 +1268,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  You won’t have it your way—!
+    <t xml:space="preserve">[name="Maria"]  You won't have it your way—!
 </t>
   </si>
   <si>
@@ -1288,7 +1288,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Left-hand Knight"]  I was thinking I’d rend your sword straight in two, hmph... the Nearl family sword.
+    <t xml:space="preserve">[name="Left-hand Knight"]  I was thinking I'd rend your sword straight in two, hmph... the Nearl family sword.
 </t>
   </si>
   <si>
@@ -1304,11 +1304,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  This is the power of Kazimierz’s first-class Knightclub! This is the power of a true Major knight! Pals in the audience here for the first time, don’t close your eyes, don’t miss a thing!  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  ‘Cause this brutal battle’ll end in a flash! 
+    <t xml:space="preserve">[name="Greatmouth Mob"]  This is the power of Kazimierz's first-class Knightclub! This is the power of a true Major knight! Pals in the audience here for the first time, don't close your eyes, don't miss a thing!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  'Cause this brutal battle'll end in a flash! 
 </t>
   </si>
   <si>
@@ -1488,7 +1488,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="대머리 마틴"]  블레이드 헬멧 기사단의 주장이자, 귀족 기사, 고위 상업 기사, 16강의 문턱까지 갔었던 스포츠 기사, 타이터스 토폴라라고.
+    <t xml:space="preserve">[name="대머리 마틴"]  블레이드헬멧 기사단의 주장이자, 귀족 기사, 고위 상업 기사, 16강의 문턱까지 갔었던 스포츠 기사, 타이터스 토폴라라고.
 </t>
   </si>
   <si>
@@ -1572,7 +1572,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="빅마우스 모브"]  이에 맞서는 상대! 블레이드 헬멧 기사단 소속! 감춰진 예리한 칼끝, 천만장자, 과거 전설의 기사로 이름을 떨치며 지금도 큰 인기를 얻고 있는 '좌완의 기사', 타이터스~ 토폴~라!!!!
+    <t xml:space="preserve">[name="빅마우스 모브"]  이에 맞서는 상대! 블레이드헬멧 기사단 소속! 감춰진 예리한 칼끝, 천만장자, 과거 전설의 기사로 이름을 떨치며 지금도 큰 인기를 얻고 있는 '좌완의 기사', 타이터스~ 토폴~라!!!!
 </t>
   </si>
   <si>
